--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_g1.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_g1.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE5E0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE650&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE6C0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE730&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE7A0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE810&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE880&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE8F0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE960&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE9D0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEA40&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEAB0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEB20&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEB90&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEC00&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEC70&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BECE0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76ECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BED50&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76ED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEDC0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEE30&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEEA0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEF10&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEF80&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEFF0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76EFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF060&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF0D0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF140&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF1B0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF220&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF290&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF300&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF370&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF3E0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF450&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF4C0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF530&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF5A0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF610&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF680&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF6F0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF760&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF7D0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF840&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF8B0&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3700,7 +3700,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF920&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF990&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76F990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFA00&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76FA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFA70&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76FA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFAE0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4170,7 +4170,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C76FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFB50&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">

--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_g1.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_g1.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL207491</t>
+          <t>CHEMBL488247</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)n4)c3n2)cc(OC)c1OC</t>
+          <t>CN(c1ccccc1CNc1nc(Nc2ccc(S(C)(=O)=O)cc2)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)n4)c3n2)cc(OC)c1OC</t>
+          <t>CN(c1ccccc1CNc1nc(Nc2ccc(S(C)(=O)=O)cc2)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>449.47</v>
+        <v>529.5700000000001</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>120.62</v>
+        <v>121.36</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609A10&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL471526</t>
+          <t>CHEMBL207491</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cnc(Nc2ccc3[nH]ncc3c2)nc1NCc1ccccn1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cnc(Nc2ccc3[nH]ncc3c2)nc1NCc1ccccn1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>385.35</v>
+        <v>449.47</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -661,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>91.41</v>
+        <v>120.62</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609C40&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL514409</t>
+          <t>CHEMBL471526</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)Nc1ccc2c(c1)/C(=C(/Nc1ccc(CN3CCCCC3)cc1)c1ccccc1)C(=O)N2</t>
+          <t>FC(F)(F)c1cnc(Nc2ccc3[nH]ncc3c2)nc1NCc1ccccn1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)Nc1ccc2c(c1)/C(=C(/Nc1ccc(CN3CCCCC3)cc1)c1ccccc1)C(=O)N2</t>
+          <t>FC(F)(F)c1cnc(Nc2ccc3[nH]ncc3c2)nc1NCc1ccccn1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>516.67</v>
+        <v>385.35</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>90.54000000000001</v>
+        <v>91.41</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609CB0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL482968</t>
+          <t>CHEMBL514409</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(/C=C/c3ccccc3)n2)n[nH]1</t>
+          <t>CCS(=O)(=O)Nc1ccc2c(c1)/C(=C(/Nc1ccc(CN3CCCCC3)cc1)c1ccccc1)C(=O)N2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(/C=C/c3ccccc3)n2)n[nH]1</t>
+          <t>CCS(=O)(=O)Nc1ccc2c(c1)/C(=C(/Nc1ccc(CN3CCCCC3)cc1)c1ccccc1)C(=O)N2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>375.48</v>
+        <v>516.67</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
         <v>5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>72.97</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609E00&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL162</t>
+          <t>CHEMBL482968</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(/C=C/c3ccccc3)n2)n[nH]1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
+          <t>Cc1cc(Nc2cc(N3CCN(C)CC3)nc(/C=C/c3ccccc3)n2)n[nH]1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>466.54</v>
+        <v>375.48</v>
       </c>
       <c r="H6" t="n">
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>69.45</v>
+        <v>72.97</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609EE0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL455680</t>
+          <t>CHEMBL162</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CC(=O)N1C2CCC1c1cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCC[C@H]4N(C)C)n3)ccc12</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CC(=O)N1C2CCC1c1cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCC[C@H]4N(C)C)n3)ccc12</t>
+          <t>CN[C@@H]1CC2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>474.53</v>
+        <v>466.54</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+      <c r="L7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" t="n">
-        <v>5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
       <c r="M7" t="n">
-        <v>73.39</v>
+        <v>69.45</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609F50&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL382608</t>
+          <t>CHEMBL455680</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(Br)c(Nc3ccccn3)n2)cc(OC)c1OC</t>
+          <t>CC(=O)N1C2CCC1c1cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCC[C@H]4N(C)C)n3)ccc12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(Br)c(Nc3ccccn3)n2)cc(OC)c1OC</t>
+          <t>CC(=O)N1C2CCC1c1cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCC[C@H]4N(C)C)n3)ccc12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>432.28</v>
+        <v>474.53</v>
       </c>
       <c r="H8" t="n">
         <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>90.42</v>
+        <v>73.39</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609FC0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL401930</t>
+          <t>CHEMBL382608</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
+          <t>COc1cc(Nc2ncc(Br)c(Nc3ccccn3)n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
+          <t>COc1cc(Nc2ncc(Br)c(Nc3ccccn3)n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>479.97</v>
+        <v>432.28</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>106.27</v>
+        <v>90.42</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A110&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL470314</t>
+          <t>CHEMBL401930</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cn1ccc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc21</t>
+          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cn1ccc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc21</t>
+          <t>Cc1cc(N2CCOCC2)cc2[nH]c(-c3c(NC[C@@H](O)c4cccc(Cl)c4)cc[nH]c3=O)nc12</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>398.39</v>
+        <v>479.97</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>67.66</v>
+        <v>106.27</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A180&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL459729</t>
+          <t>CHEMBL470314</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cc1cc(C2CCN(CCCF)CC2)cc2[nH]c(-c3c(NCCn4cc(Cl)cn4)cc[nH]c3=O)nc12</t>
+          <t>Cn1ccc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cc1cc(C2CCN(CCCF)CC2)cc2[nH]c(-c3c(NCCn4cc(Cl)cn4)cc[nH]c3=O)nc12</t>
+          <t>Cn1ccc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>512.03</v>
+        <v>398.39</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>94.63</v>
+        <v>67.66</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BE9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A2D0&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL383300</t>
+          <t>CHEMBL459729</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)C(O)CC3)cc(OC)c1OC</t>
+          <t>Cc1cc(C2CCN(CCCF)CC2)cc2[nH]c(-c3c(NCCn4cc(Cl)cn4)cc[nH]c3=O)nc12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)C(O)CC3)cc(OC)c1OC</t>
+          <t>Cc1cc(C2CCN(CCCF)CC2)cc2[nH]c(-c3c(NCCn4cc(Cl)cn4)cc[nH]c3=O)nc12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>409.45</v>
+        <v>512.03</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
         <v>9</v>
       </c>
-      <c r="J12" t="n">
-        <v>6</v>
-      </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>101.86</v>
+        <v>94.63</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A340&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL204933</t>
+          <t>CHEMBL470317</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CCOC(=O)Cc1cnc(Nc2cc(OC)c(OC)c(OC)c2)nc1Nc1ccccn1</t>
+          <t>N#Cc1cnc(Nc2ccc3c(c2)CC(=O)N3)nc1NCc1ccccn1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CCOC(=O)Cc1cnc(Nc2cc(OC)c(OC)c(OC)c2)nc1Nc1ccccn1</t>
+          <t>N#Cc1cnc(Nc2ccc3c(c2)CC(=O)N3)nc1NCc1ccccn1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>439.47</v>
+        <v>357.38</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>116.72</v>
+        <v>115.62</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A3B0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL488446</t>
+          <t>CHEMBL383300</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCCCNC4=O)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)C(O)CC3)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCCCNC4=O)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)C(O)CC3)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>420.4</v>
+        <v>409.45</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="J14" t="n">
-        <v>4</v>
-      </c>
       <c r="K14" t="n">
         <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>108.04</v>
+        <v>101.86</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A420&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL382809</t>
+          <t>CHEMBL204933</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>c1ccc(-n2ccc3cnc(Nc4cccc5c4CCCC5)nc32)nc1</t>
+          <t>CCOC(=O)Cc1cnc(Nc2cc(OC)c(OC)c(OC)c2)nc1Nc1ccccn1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>c1ccc(-n2ccc3cnc(Nc4cccc5c4CCCC5)nc32)nc1</t>
+          <t>CCOC(=O)Cc1cnc(Nc2cc(OC)c(OC)c(OC)c2)nc1Nc1ccccn1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>341.42</v>
+        <v>439.47</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
+        <v>10</v>
+      </c>
+      <c r="K15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>55.63</v>
+        <v>116.72</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A500&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL379118</t>
+          <t>CHEMBL377957</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(N)=O)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COc1ccc(C)c(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(N)=O)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COc1ccc(C)c(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>344.38</v>
+        <v>331.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>98.72</v>
+        <v>64.86</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A5E0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL535</t>
+          <t>CHEMBL488446</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCCCNC4=O)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(N[C@@H]4CCCCNC4=O)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>398.48</v>
+        <v>420.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>77.23</v>
+        <v>108.04</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A730&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL475817</t>
+          <t>CHEMBL382809</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nc1ncc(NC(=O)c2cc(NC(=O)c3cccc(C(F)(F)F)c3)ccc2Cl)cc1Cl</t>
+          <t>c1ccc(-n2ccc3cnc(Nc4cccc5c4CCCC5)nc32)nc1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nc1ncc(NC(=O)c2cc(NC(=O)c3cccc(C(F)(F)F)c3)ccc2Cl)cc1Cl</t>
+          <t>c1ccc(-n2ccc3cnc(Nc4cccc5c4CCCC5)nc32)nc1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>469.25</v>
+        <v>341.42</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>97.11</v>
+        <v>55.63</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BECE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A7A0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL205588</t>
+          <t>CHEMBL379118</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4nccs4)c3n2)cc(OC)c1OC</t>
+          <t>Cc1ccc(C(N)=O)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4nccs4)c3n2)cc(OC)c1OC</t>
+          <t>Cc1ccc(C(N)=O)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,16 +1731,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>383.43</v>
+        <v>344.38</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>83.31999999999999</v>
+        <v>98.72</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BED50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A8F0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL206797</t>
+          <t>CHEMBL535</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>301.35</v>
+        <v>398.48</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>4</v>
-      </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>55.63</v>
+        <v>77.23</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A960&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL206731</t>
+          <t>CHEMBL475817</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4C#N)c3n2)cc(OC)c1OC</t>
+          <t>Nc1ncc(NC(=O)c2cc(NC(=O)c3cccc(C(F)(F)F)c3)ccc2Cl)cc1Cl</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4C#N)c3n2)cc(OC)c1OC</t>
+          <t>Nc1ncc(NC(=O)c2cc(NC(=O)c3cccc(C(F)(F)F)c3)ccc2Cl)cc1Cl</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>401.43</v>
+        <v>469.25</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>94.22</v>
+        <v>97.11</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A9D0&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL206853</t>
+          <t>CHEMBL205588</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cc1ccc(-c2cnc3ccccc3n2)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4nccs4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cc1ccc(-c2cnc3ccccc3n2)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4nccs4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>429.49</v>
+        <v>383.43</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
         <v>6</v>
       </c>
-      <c r="J22" t="n">
-        <v>4</v>
-      </c>
       <c r="K22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>81.41</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AA40&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL472211</t>
+          <t>CHEMBL206731</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCS3(=O)=O)ncc1C(F)(F)F</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4C#N)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCS3(=O)=O)ncc1C(F)(F)F</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4C#N)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>455.51</v>
+        <v>401.43</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
         <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>87.22</v>
+        <v>94.22</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AB20&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL201511</t>
+          <t>CHEMBL206853</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COc1cc(C2=C(c3c[nH]c4ccccc34)C(=O)NC2=O)cc(OC)c1OC</t>
+          <t>Cc1ccc(-c2cnc3ccccc3n2)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COc1cc(C2=C(c3c[nH]c4ccccc34)C(=O)NC2=O)cc(OC)c1OC</t>
+          <t>Cc1ccc(-c2cnc3ccccc3n2)cc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>378.38</v>
+        <v>429.49</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>89.65000000000001</v>
+        <v>81.41</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AC00&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL383672</t>
+          <t>CHEMBL472211</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)n4)c3n2)cc(OC)c1OC</t>
+          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCS3(=O)=O)ncc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)n4)c3n2)cc(OC)c1OC</t>
+          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCS3(=O)=O)ncc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>412.84</v>
+        <v>455.51</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>96.20999999999999</v>
+        <v>87.22</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BEFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AC70&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL487227</t>
+          <t>CHEMBL201511</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F</t>
+          <t>COc1cc(C2=C(c3c[nH]c4ccccc34)C(=O)NC2=O)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F</t>
+          <t>COc1cc(C2=C(c3c[nH]c4ccccc34)C(=O)NC2=O)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>420.44</v>
+        <v>378.38</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -2222,10 +2222,10 @@
         <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>82.18000000000001</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60ADC0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL518905</t>
+          <t>CHEMBL208734</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCCNC3=O)ncc1C(F)(F)F</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCCNC3=O)ncc1C(F)(F)F</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>448.49</v>
+        <v>406.44</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K27" t="n">
         <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>82.18000000000001</v>
+        <v>90.66</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AF10&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL460746</t>
+          <t>CHEMBL383672</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>O=C(NC(=S)Nc1ccc(O)c(-c2nc3ccccc3s2)c1)c1ccc([N+](=O)[O-])cc1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>O=C(NC(=S)Nc1ccc(O)c(-c2nc3ccccc3s2)c1)c1ccc([N+](=O)[O-])cc1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,16 +2343,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>450.5</v>
+        <v>412.84</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>117.39</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60B840&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL472212</t>
+          <t>CHEMBL487227</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,44 +2392,44 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>506.51</v>
+        <v>420.44</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>116.32</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F6099A0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL487246</t>
+          <t>CHEMBL518905</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,44 +2460,44 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1</t>
+          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCCNC3=O)ncc1C(F)(F)F</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1</t>
+          <t>CN(C)[C@@H]1CCC[C@H]1Nc1nc(Nc2ccc3c(c2)CCCNC3=O)ncc1C(F)(F)F</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>477.47</v>
+        <v>448.49</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>113.08</v>
+        <v>82.18000000000001</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609AF0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL471357</t>
+          <t>CHEMBL460746</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,44 +2528,44 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>O=C(NC(=S)Nc1ccc(O)c(-c2nc3ccccc3s2)c1)c1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>O=C(NC(=S)Nc1ccc(O)c(-c2nc3ccccc3s2)c1)c1ccc([N+](=O)[O-])cc1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>400.36</v>
+        <v>450.5</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>91.83</v>
+        <v>117.39</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AAB0&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL206255</t>
+          <t>CHEMBL472212</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)O)c4)c3n2)cc(OC)c1OC</t>
+          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)O)c4)c3n2)cc(OC)c1OC</t>
+          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>434.45</v>
+        <v>506.51</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K32" t="n">
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>107.73</v>
+        <v>116.32</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60AB90&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL564417</t>
+          <t>CHEMBL487246</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cc1cc(N2CCN(CCC#N)CC2)cc2nc(-c3c(NC[C@@H](O)c4ccccc4Cl)cc[nH]c3=O)[nH]c12</t>
+          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Cc1cc(N2CCN(CCC#N)CC2)cc2nc(-c3c(NC[C@@H](O)c4ccccc4Cl)cc[nH]c3=O)[nH]c12</t>
+          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>532.05</v>
+        <v>477.47</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>124.07</v>
+        <v>113.08</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60B140&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL383241</t>
+          <t>CHEMBL471357</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CC3)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CC3)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,16 +2751,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>379.42</v>
+        <v>400.36</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>81.63</v>
+        <v>91.83</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60B290&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL378811</t>
+          <t>CHEMBL382354</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccnc4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccnc4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>377.4</v>
+        <v>415.45</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -2837,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>83.31999999999999</v>
+        <v>94.22</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60B3E0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL208419</t>
+          <t>CHEMBL564417</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(-c5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>Cc1cc(N2CCN(CCC#N)CC2)cc2nc(-c3c(NC[C@@H](O)c4ccccc4Cl)cc[nH]c3=O)[nH]c12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(-c5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>Cc1cc(N2CCN(CCC#N)CC2)cc2nc(-c3c(NC[C@@H](O)c4ccccc4Cl)cc[nH]c3=O)[nH]c12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>444.46</v>
+        <v>532.05</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>124.89</v>
+        <v>124.07</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60B680&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL529889</t>
+          <t>CHEMBL383241</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4S(=O)(=O)N4CCCC4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CC3)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4S(=O)(=O)N4CCCC4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CC3)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,25 +2955,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>532.55</v>
+        <v>379.42</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>116.32</v>
+        <v>81.63</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60B920&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL380683</t>
+          <t>CHEMBL378811</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccnc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>COC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccnc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,16 +3023,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>434.45</v>
+        <v>377.4</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>96.73</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60BA00&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL383006</t>
+          <t>CHEMBL208419</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4Cl)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(-c5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4Cl)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(-c5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>411.85</v>
+        <v>444.46</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
         <v>7</v>
       </c>
-      <c r="J39" t="n">
-        <v>6</v>
-      </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>83.31999999999999</v>
+        <v>124.89</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60BA70&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL208042</t>
+          <t>CHEMBL529889</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4S(=O)(=O)N4CCCC4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>COc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4S(=O)(=O)N4CCCC4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>317.35</v>
+        <v>532.55</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>7</v>
+      </c>
+      <c r="K40" t="n">
         <v>5</v>
       </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4</v>
-      </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>64.86</v>
+        <v>116.32</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60BCA0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL379837</t>
+          <t>CHEMBL207737</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN(C)C)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3223,20 +3223,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>490.56</v>
+        <v>444.41</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
         <v>4</v>
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>102.77</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60BD10&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL208370</t>
+          <t>CHEMBL380683</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)n4)c3n2)cc(OC)c1OC</t>
+          <t>COC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)n4)c3n2)cc(OC)c1OC</t>
+          <t>COC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3291,20 +3291,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>463.5</v>
+        <v>434.45</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K42" t="n">
         <v>4</v>
@@ -3313,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="M42" t="n">
-        <v>138.44</v>
+        <v>96.73</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60BDF0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL4066053</t>
+          <t>CHEMBL207259</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cccc(N2CCN(Cn3nc(-c4ccc5c(c4)OCCO5)oc3=S)CC2)c1</t>
+          <t>CCNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cccc(N2CCN(Cn3nc(-c4ccc5c(c4)OCCO5)oc3=S)CC2)c1</t>
+          <t>CCNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3359,66 +3359,40 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>478.5</v>
+        <v>475.55</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
         <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>780</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>CHEMBL4017675</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) by enzyme immuno assay</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>99.53</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60BF40&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3430,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL2207440</t>
+          <t>CHEMBL383006</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3438,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2cc(-c3ccc4ncccc4c3)[nH]n2)cc1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4Cl)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cc1ccc(-n2nc(C(C)(C)C)cc2NC(=O)Nc2cc(-c3ccc4ncccc4c3)[nH]n2)cc1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4Cl)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3453,66 +3427,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>465.56</v>
+        <v>411.85</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>608</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>CHEMBL2209546</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK after 2hrs by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>83.31999999999999</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609BD0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3524,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL4102284</t>
+          <t>CHEMBL208368</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3532,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cc1nc(C)c(/C=C2\CN(C(C)C)C/C(=C\c3nc(C)c(C)nc3C)C2=NO)nc1C</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cc1nc(C)c(/C=C2\CN(C(C)C)C/C(=C\c3nc(C)c(C)nc3C)C2=NO)nc1C</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3547,11 +3495,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>420.56</v>
+        <v>390.44</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -3560,53 +3508,27 @@
         <v>6</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>87.39</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>CHEMBL4034794</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) assembly preincubated with enzyme followed by GTP addition measured after 20 mins by spectrophotometric analysis</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>70.43000000000001</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F609D20&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3618,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL3665939</t>
+          <t>CHEMBL208042</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3626,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CCN(c1ccccc1Oc1nc(Nc2cc(F)c(C(=O)NC3CCN(C)CC3)cc2OC)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>COc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CCN(c1ccccc1Oc1nc(Nc2cc(F)c(C(=O)NC3CCN(C)CC3)cc2OC)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>COc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3641,66 +3563,40 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>640.66</v>
+        <v>317.35</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>125.99</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>38</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>CHEMBL3705995</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>DELFIA Assay: This test uses active PTK2 enzyme (Invitrogen Code PV3832) and poly-Glu-Tyr (4:1, Sigma P-0275) as the kinase substrate. The kinase activity is detected by means of the phosphorylation of the substrate in a DELFIA assay. The phosphorylated substrate is detected with the Europium-labelled phosphotyrosine antibody PY20 (Perkin Elmer, No.: AD0038). In order to determine concentration-activity curves with PTK2-inhibitors the compounds are serially diluted in 10% DMSO/H2O and 10 L of each dilution are dispensed per well in a 96-well microtitre plate (clear U-shaped base plate, Greiner No. 650101) (the inhibitors are tested in duplicates) and mixed with 10 L/well of PTK2 kinase (0.01 ug/well). PTK2 kinase is diluted accordingly beforehand with kinase dilution buffer (20 mM TRIS/HCl pH 7.5, 0.1 mM EDTA, 0.1 mM EGTA, 0.286 mM sodium orthovanadate, 10% glycerol with the addition of freshly prepared BSA (fraction V 1 mg/mL) and DTT (1 mM)).</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>64.86</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A030&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3712,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL4776107</t>
+          <t>CHEMBL207232</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3720,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cc1nc2c(s1)N(C)c1nc(Nc3ccc4c(c3)CCC(=O)N4)ncc1N(C)C2=O</t>
+          <t>COC(=O)CNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cc1nc2c(s1)N(C)c1nc(Nc3ccc4c(c3)CCC(=O)N4)ncc1N(C)C2=O</t>
+          <t>COC(=O)CNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3735,66 +3631,40 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>421.49</v>
+        <v>505.53</v>
       </c>
       <c r="H47" t="n">
         <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>103.35</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>670</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>CHEMBL4679512</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Inhibition of Focal adhesion kinase (unknown origin) using Tyr 07 peptide substrate incubated for 60 mins at room temperature followed by 60 mins development reaction measured fluorescence by Z-LYTE assay</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>125.83</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A490&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3806,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL1257912</t>
+          <t>CHEMBL206322</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3814,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc2c(c1)C(c1ccccc1Cl)=Nc1c[nH]nc1N2</t>
+          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc2c(c1)C(c1ccccc1Cl)=Nc1c[nH]nc1N2</t>
+          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3829,20 +3699,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>351.8</v>
+        <v>317.35</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
         <v>4</v>
@@ -3851,44 +3721,18 @@
         <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>82.17</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>180</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>CHEMBL1261154</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>64.86</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A570&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3900,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3104855</t>
+          <t>CHEMBL382637</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3908,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cc1c(O)c(O)c(O)c(C=O)c1-c1cc2c(C=O)c(C)c(O)c(O)c2o1</t>
+          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cc1c(O)c(O)c(O)c(C=O)c1-c1cc2c(C=O)c(C)c(O)c(O)c2o1</t>
+          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3923,66 +3767,40 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>358.3</v>
+        <v>315.38</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>148.43</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q49" t="n">
-        <v>800</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>CHEMBL3108325</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>55.63</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A810&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3994,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL1940999</t>
+          <t>CHEMBL207084</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -4002,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O=C(CCCn1[se]c2ccccc2c1=O)N[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O=C(CCCn1[se]c2ccccc2c1=O)N[C@@H]1O[C@H](CO)[C@@H](O)[C@H](O)[C@H]1O</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4017,66 +3835,40 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>445.33</v>
+        <v>462.51</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>141.25</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>960</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>CHEMBL1944085</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Inhibition of human recombinant full-length FAK using ATP and Poly Glu:Tyr as substrate after 4 hrs by luminescence analysis</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>125.55</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60A880&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -4088,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL550011</t>
+          <t>CHEMBL208370</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -4096,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccccn1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccccn1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4111,66 +3903,40 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>289.81</v>
+        <v>463.5</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>570</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>CHEMBL3268326</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Binding affinity to biotinylated human FAK FAT domain by biolayer interoferometry</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>138.44</v>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BFB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F27F60ACE0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
